--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.30845866666667</v>
+        <v>5.120597</v>
       </c>
       <c r="H2">
-        <v>36.925376</v>
+        <v>15.361791</v>
       </c>
       <c r="I2">
-        <v>0.8110859927786954</v>
+        <v>0.6410827008352843</v>
       </c>
       <c r="J2">
-        <v>0.8110859927786955</v>
+        <v>0.6410827008352843</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.186605</v>
+        <v>36.923013</v>
       </c>
       <c r="N2">
-        <v>60.559815</v>
+        <v>110.769039</v>
       </c>
       <c r="O2">
-        <v>0.6134655823028334</v>
+        <v>0.7437819354528793</v>
       </c>
       <c r="P2">
-        <v>0.6134655823028335</v>
+        <v>0.7437819354528794</v>
       </c>
       <c r="Q2">
-        <v>248.4659932628267</v>
+        <v>189.067869598761</v>
       </c>
       <c r="R2">
-        <v>2236.19393936544</v>
+        <v>1701.610826388849</v>
       </c>
       <c r="S2">
-        <v>0.4975733408576541</v>
+        <v>0.476825732012627</v>
       </c>
       <c r="T2">
-        <v>0.4975733408576543</v>
+        <v>0.476825732012627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.30845866666667</v>
+        <v>5.120597</v>
       </c>
       <c r="H3">
-        <v>36.925376</v>
+        <v>15.361791</v>
       </c>
       <c r="I3">
-        <v>0.8110859927786954</v>
+        <v>0.6410827008352843</v>
       </c>
       <c r="J3">
-        <v>0.8110859927786955</v>
+        <v>0.6410827008352843</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.317095</v>
       </c>
       <c r="O3">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="P3">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="Q3">
-        <v>83.35737467807999</v>
+        <v>34.678551901905</v>
       </c>
       <c r="R3">
-        <v>750.2163721027199</v>
+        <v>312.106967117145</v>
       </c>
       <c r="S3">
-        <v>0.166929916078382</v>
+        <v>0.08745867783275689</v>
       </c>
       <c r="T3">
-        <v>0.166929916078382</v>
+        <v>0.08745867783275689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.30845866666667</v>
+        <v>5.120597</v>
       </c>
       <c r="H4">
-        <v>36.925376</v>
+        <v>15.361791</v>
       </c>
       <c r="I4">
-        <v>0.8110859927786954</v>
+        <v>0.6410827008352843</v>
       </c>
       <c r="J4">
-        <v>0.8110859927786955</v>
+        <v>0.6410827008352843</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>17.840633</v>
       </c>
       <c r="O4">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249253</v>
       </c>
       <c r="P4">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249254</v>
       </c>
       <c r="Q4">
-        <v>73.19689795588978</v>
+        <v>30.45156393930033</v>
       </c>
       <c r="R4">
-        <v>658.772081603008</v>
+        <v>274.064075453703</v>
       </c>
       <c r="S4">
-        <v>0.1465827358426592</v>
+        <v>0.07679829098990043</v>
       </c>
       <c r="T4">
-        <v>0.1465827358426593</v>
+        <v>0.07679829098990044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>7.42737</v>
       </c>
       <c r="I5">
-        <v>0.1631462268707758</v>
+        <v>0.3099611509948915</v>
       </c>
       <c r="J5">
-        <v>0.1631462268707758</v>
+        <v>0.3099611509948915</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.186605</v>
+        <v>36.923013</v>
       </c>
       <c r="N5">
-        <v>60.559815</v>
+        <v>110.769039</v>
       </c>
       <c r="O5">
-        <v>0.6134655823028334</v>
+        <v>0.7437819354528793</v>
       </c>
       <c r="P5">
-        <v>0.6134655823028335</v>
+        <v>0.7437819354528794</v>
       </c>
       <c r="Q5">
-        <v>49.97779479295</v>
+        <v>91.41362635527</v>
       </c>
       <c r="R5">
-        <v>449.80015313655</v>
+        <v>822.7226371974299</v>
       </c>
       <c r="S5">
-        <v>0.1000845950677906</v>
+        <v>0.2305435048021825</v>
       </c>
       <c r="T5">
-        <v>0.1000845950677907</v>
+        <v>0.2305435048021826</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>7.42737</v>
       </c>
       <c r="I6">
-        <v>0.1631462268707758</v>
+        <v>0.3099611509948915</v>
       </c>
       <c r="J6">
-        <v>0.1631462268707758</v>
+        <v>0.3099611509948915</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>20.317095</v>
       </c>
       <c r="O6">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="P6">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="Q6">
         <v>16.76695354335</v>
@@ -818,10 +818,10 @@
         <v>150.90258189015</v>
       </c>
       <c r="S6">
-        <v>0.03357718688587199</v>
+        <v>0.04228595220275314</v>
       </c>
       <c r="T6">
-        <v>0.03357718688587199</v>
+        <v>0.04228595220275314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>7.42737</v>
       </c>
       <c r="I7">
-        <v>0.1631462268707758</v>
+        <v>0.3099611509948915</v>
       </c>
       <c r="J7">
-        <v>0.1631462268707758</v>
+        <v>0.3099611509948915</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>17.840633</v>
       </c>
       <c r="O7">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249253</v>
       </c>
       <c r="P7">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249254</v>
       </c>
       <c r="Q7">
         <v>14.72322025835667</v>
@@ -880,10 +880,10 @@
         <v>132.50898232521</v>
       </c>
       <c r="S7">
-        <v>0.02948444491711315</v>
+        <v>0.03713169398995577</v>
       </c>
       <c r="T7">
-        <v>0.02948444491711316</v>
+        <v>0.03713169398995578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.1731</v>
       </c>
       <c r="I8">
-        <v>0.02576778035052879</v>
+        <v>0.04895614816982421</v>
       </c>
       <c r="J8">
-        <v>0.02576778035052879</v>
+        <v>0.04895614816982421</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.186605</v>
+        <v>36.923013</v>
       </c>
       <c r="N8">
-        <v>60.559815</v>
+        <v>110.769039</v>
       </c>
       <c r="O8">
-        <v>0.6134655823028334</v>
+        <v>0.7437819354528793</v>
       </c>
       <c r="P8">
-        <v>0.6134655823028335</v>
+        <v>0.7437819354528794</v>
       </c>
       <c r="Q8">
-        <v>7.893635441833332</v>
+        <v>14.4381288501</v>
       </c>
       <c r="R8">
-        <v>71.04271897649998</v>
+        <v>129.9431596509</v>
       </c>
       <c r="S8">
-        <v>0.01580764637738866</v>
+        <v>0.03641269863806978</v>
       </c>
       <c r="T8">
-        <v>0.01580764637738866</v>
+        <v>0.03641269863806979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.1731</v>
       </c>
       <c r="I9">
-        <v>0.02576778035052879</v>
+        <v>0.04895614816982421</v>
       </c>
       <c r="J9">
-        <v>0.02576778035052879</v>
+        <v>0.04895614816982421</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>20.317095</v>
       </c>
       <c r="O9">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="P9">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="Q9">
         <v>2.6482204605</v>
       </c>
       <c r="R9">
-        <v>23.83398414449999</v>
+        <v>23.8339841445</v>
       </c>
       <c r="S9">
-        <v>0.005303276655911369</v>
+        <v>0.006678763886685289</v>
       </c>
       <c r="T9">
-        <v>0.005303276655911369</v>
+        <v>0.006678763886685289</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.1731</v>
       </c>
       <c r="I10">
-        <v>0.02576778035052879</v>
+        <v>0.04895614816982421</v>
       </c>
       <c r="J10">
-        <v>0.02576778035052879</v>
+        <v>0.04895614816982421</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>17.840633</v>
       </c>
       <c r="O10">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249253</v>
       </c>
       <c r="P10">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249254</v>
       </c>
       <c r="Q10">
         <v>2.325427396922222</v>
@@ -1066,10 +1066,10 @@
         <v>20.9288465723</v>
       </c>
       <c r="S10">
-        <v>0.004656857317228768</v>
+        <v>0.005864685645069132</v>
       </c>
       <c r="T10">
-        <v>0.004656857317228769</v>
+        <v>0.005864685645069133</v>
       </c>
     </row>
   </sheetData>
